--- a/katalog_cviku.xlsx
+++ b/katalog_cviku.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\4\web\mockup\2023-l4-web-mockupapp-tomaspacak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064377CC-AB8A-4778-89CF-8B4BEF78CC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB95EC6-8E11-479A-A0A6-21A6E08A88D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{3BD0E10D-8122-4D9A-88B4-89216610124D}"/>
   </bookViews>
@@ -21,17 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -42,9 +31,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Název</t>
-  </si>
-  <si>
     <t>Kategorie I</t>
   </si>
   <si>
@@ -327,9 +313,6 @@
     <t>Dumbbell Shrugs</t>
   </si>
   <si>
-    <t xml:space="preserve"> Levator scapulae</t>
-  </si>
-  <si>
     <t>Postavte se s jednoručními činkami v rukách na rovném povrchu. Pomalu zvedněte ramena směrem k uším, současně zvedněte ramena a udržujte kontrolu nad pažemi. Poté se pomalu vraťte zpět do výchozí pozice.</t>
   </si>
   <si>
@@ -520,13 +503,32 @@
   </si>
   <si>
     <t>Postavte se rovně s nohama ve šíři ramen. Pomalu se ohněte v kolenou a kyčlích, jako byste chtěli sedět na židli. Sledujte, aby kolena směřovala ven nad prsty u nohou. Poté se pomalu vraťte do výchozí pozice.</t>
+  </si>
+  <si>
+    <t>Levator scapulae</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Název </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cviku</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +551,14 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -608,7 +618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -779,11 +789,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,9 +834,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,7 +857,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -835,6 +871,36 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1169,1051 +1235,1089 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651DBB90-620F-4981-B761-0AA2AD463801}">
-  <dimension ref="B1:J37"/>
+  <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="6" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:11" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B2" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="23" t="s">
+      <c r="C3" s="25">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="28">
+        <v>1</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="I3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B4" s="29" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2">
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B5" s="29" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B6" s="29" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>8</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>139</v>
+      <c r="J6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B7" s="29" t="s">
+        <v>137</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>134</v>
+      <c r="J7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B8" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>8</v>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G8" s="2">
         <v>2</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>144</v>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B9" s="29" t="s">
+        <v>142</v>
       </c>
       <c r="C9" s="5">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>8</v>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B10" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="31">
+        <v>8</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="G10" s="34">
+        <v>2</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="5">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="I10" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="25">
+        <v>9</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="28">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B12" s="29" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="5">
         <v>10</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>26</v>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B13" s="29" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C13" s="5">
         <v>11</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B14" s="29" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="5">
         <v>12</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>26</v>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2">
         <v>2</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B15" s="30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="31">
+        <v>13</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="34">
+        <v>1</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="J15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B16" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="25">
+        <v>14</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="5">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="28">
+        <v>2</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="2">
-        <v>2</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B17" s="29" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C17" s="5">
         <v>15</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>47</v>
+      <c r="D17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="2">
         <v>4</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B18" s="29" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C18" s="5">
         <v>16</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>47</v>
+      <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B19" s="29" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C19" s="5">
         <v>17</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>47</v>
+      <c r="D19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="2">
         <v>2</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B20" s="29" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C20" s="5">
         <v>18</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>47</v>
+      <c r="D20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B21" s="30" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="31">
+        <v>19</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="5">
-        <v>19</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="34">
+        <v>2</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="25">
+        <v>20</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="F22" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5">
-        <v>20</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="28">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="2">
-        <v>3</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B23" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C23" s="5">
         <v>21</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>69</v>
+      <c r="D23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="2">
         <v>3</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>80</v>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B24" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="C24" s="5">
         <v>22</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>69</v>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B25" s="29" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C25" s="5">
         <v>23</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>69</v>
+      <c r="D25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B26" s="29" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C26" s="5">
         <v>24</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>69</v>
+      <c r="D26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B27" s="29" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="C27" s="5">
         <v>25</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>69</v>
+      <c r="D27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B28" s="30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="31">
+        <v>26</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="5">
-        <v>26</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="34">
+        <v>2</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B29" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="2">
-        <v>2</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="C29" s="25">
+        <v>27</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="28">
+        <v>1</v>
+      </c>
+      <c r="H29" s="28" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="I29" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="5">
-        <v>27</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="J29" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B30" s="29" t="s">
         <v>106</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="C30" s="5">
         <v>28</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>25</v>
+      <c r="D30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B31" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C31" s="5">
         <v>29</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>25</v>
+      <c r="D31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B32" s="29" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C32" s="5">
         <v>30</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>25</v>
+      <c r="D32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" spans="2:11" ht="20.25" customHeight="1">
+      <c r="B33" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="C33" s="5">
         <v>31</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>25</v>
+      <c r="D33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>123</v>
+        <v>7</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" spans="2:11" ht="21.75" customHeight="1">
+      <c r="B34" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="C34" s="5">
         <v>32</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>25</v>
+      <c r="D34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G34" s="2">
         <v>3</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" spans="2:11" ht="21.75" customHeight="1">
+      <c r="B35" s="29" t="s">
+        <v>124</v>
       </c>
       <c r="C35" s="5">
         <v>33</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>25</v>
+      <c r="D35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="2:11" ht="21.75" customHeight="1" thickBot="1">
+      <c r="B36" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="C36" s="31">
+        <v>34</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="34">
+        <v>2</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" s="34" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="5">
-        <v>34</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="2">
-        <v>2</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="K36" s="23"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K3:K36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2225,60 +2329,60 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="9"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="8"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11" t="s">
+    <row r="2" spans="2:3" ht="15" thickBot="1"/>
+    <row r="3" spans="2:3">
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15" thickBot="1">
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15" thickBot="1"/>
+    <row r="6" spans="2:3">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="13" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" s="13">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15" t="s">
+    <row r="9" spans="2:3" ht="15" thickBot="1">
+      <c r="B9" s="11">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
-        <v>3</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12">
-        <v>4</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
